--- a/biology/Botanique/×Sorbopyrus/×Sorbopyrus.xlsx
+++ b/biology/Botanique/×Sorbopyrus/×Sorbopyrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%97Sorbopyrus</t>
+          <t>×Sorbopyrus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">×Sorbopyrus est un genre de plantes à fleurs de la famille des Rosaceae. C'est un genre hybride issu du croisement intergénérique d'une espèce du genre Pyrus (les poiriers) et d'une espèce du genre Sorbus (les sorbiers).
 La seule espèce hybride réellement attestée est ×Sorbopyrus auricularis. Néanmoins, l'existence d'autres croisements hybrides est imaginable.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%97Sorbopyrus</t>
+          <t>×Sorbopyrus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence GRIN : genre ×Sorbopyrus C.K.Schneid. (+liste d'espèces contenant des synonymes)
  Portail de la botanique                     </t>
